--- a/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/CCE_Cartella_Clinica_Elettronica/14/CCE_Cart_Clin_Elettr_accreditamento-checklist_V8.1.2.xlsx
+++ b/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/CCE_Cartella_Clinica_Elettronica/14/CCE_Cart_Clin_Elettr_accreditamento-checklist_V8.1.2.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="876">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2273,13 +2273,10 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2023-03-31T10:44:38</t>
-  </si>
-  <si>
-    <t>9aff3ae765e62dd0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180.4.6.168dadaadb9d46e818fd16b5511eefbf2329fd742b3bf96a23322b4f0ff5c3b1.049123021a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>18b500ad8e5c4c6e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180.4.6.168dadaadb9d46e818fd16b5511eefbf2329fd742b3bf96a23322b4f0ff5c3b1.d33144b209^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>SI</t>
@@ -4559,9 +4556,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -4867,7 +4865,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4977,6 +4975,12 @@
     <xf borderId="21" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="1" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="21" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="1" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="1" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -4989,16 +4993,16 @@
     <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="17" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -13903,28 +13907,28 @@
         <v>420</v>
       </c>
       <c r="F191" s="42">
-        <v>45016.0</v>
-      </c>
-      <c r="G191" s="42" t="s">
+        <v>45029.0</v>
+      </c>
+      <c r="G191" s="43">
+        <v>45029.51980324074</v>
+      </c>
+      <c r="H191" s="44" t="s">
         <v>421</v>
       </c>
-      <c r="H191" s="42" t="s">
+      <c r="I191" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="I191" s="42" t="s">
+      <c r="J191" s="42" t="s">
         <v>423</v>
       </c>
-      <c r="J191" s="42" t="s">
-        <v>424</v>
-      </c>
-      <c r="K191" s="43"/>
+      <c r="K191" s="45"/>
       <c r="L191" s="35"/>
       <c r="M191" s="35"/>
       <c r="N191" s="35"/>
       <c r="O191" s="35"/>
       <c r="P191" s="35"/>
-      <c r="Q191" s="44" t="s">
-        <v>425</v>
+      <c r="Q191" s="46" t="s">
+        <v>424</v>
       </c>
       <c r="R191" s="36"/>
       <c r="S191" s="37"/>
@@ -13943,20 +13947,20 @@
         <v>56</v>
       </c>
       <c r="D192" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="E192" s="32" t="s">
         <v>426</v>
       </c>
-      <c r="E192" s="32" t="s">
+      <c r="F192" s="42"/>
+      <c r="G192" s="47"/>
+      <c r="H192" s="47"/>
+      <c r="I192" s="47"/>
+      <c r="J192" s="48" t="s">
         <v>427</v>
       </c>
-      <c r="F192" s="42"/>
-      <c r="G192" s="45"/>
-      <c r="H192" s="45"/>
-      <c r="I192" s="45"/>
-      <c r="J192" s="46" t="s">
+      <c r="K192" s="35" t="s">
         <v>428</v>
-      </c>
-      <c r="K192" s="35" t="s">
-        <v>429</v>
       </c>
       <c r="L192" s="35"/>
       <c r="M192" s="35"/>
@@ -13981,20 +13985,20 @@
         <v>56</v>
       </c>
       <c r="D193" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="E193" s="32" t="s">
         <v>430</v>
-      </c>
-      <c r="E193" s="32" t="s">
-        <v>431</v>
       </c>
       <c r="F193" s="33"/>
       <c r="G193" s="34"/>
       <c r="H193" s="34"/>
       <c r="I193" s="34"/>
       <c r="J193" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K193" s="35" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L193" s="35"/>
       <c r="M193" s="35"/>
@@ -14019,20 +14023,20 @@
         <v>56</v>
       </c>
       <c r="D194" s="31" t="s">
+        <v>432</v>
+      </c>
+      <c r="E194" s="32" t="s">
         <v>433</v>
-      </c>
-      <c r="E194" s="32" t="s">
-        <v>434</v>
       </c>
       <c r="F194" s="33"/>
       <c r="G194" s="34"/>
       <c r="H194" s="34"/>
       <c r="I194" s="34"/>
       <c r="J194" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K194" s="35" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L194" s="35"/>
       <c r="M194" s="35"/>
@@ -14057,10 +14061,10 @@
         <v>61</v>
       </c>
       <c r="D195" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="E195" s="32" t="s">
         <v>436</v>
-      </c>
-      <c r="E195" s="32" t="s">
-        <v>437</v>
       </c>
       <c r="F195" s="33"/>
       <c r="G195" s="34"/>
@@ -14091,10 +14095,10 @@
         <v>61</v>
       </c>
       <c r="D196" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="E196" s="32" t="s">
         <v>438</v>
-      </c>
-      <c r="E196" s="32" t="s">
-        <v>439</v>
       </c>
       <c r="F196" s="33"/>
       <c r="G196" s="34"/>
@@ -14125,10 +14129,10 @@
         <v>61</v>
       </c>
       <c r="D197" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="E197" s="32" t="s">
         <v>440</v>
-      </c>
-      <c r="E197" s="32" t="s">
-        <v>441</v>
       </c>
       <c r="F197" s="33"/>
       <c r="G197" s="34"/>
@@ -14159,10 +14163,10 @@
         <v>61</v>
       </c>
       <c r="D198" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="E198" s="32" t="s">
         <v>442</v>
-      </c>
-      <c r="E198" s="32" t="s">
-        <v>443</v>
       </c>
       <c r="F198" s="33"/>
       <c r="G198" s="34"/>
@@ -14193,10 +14197,10 @@
         <v>66</v>
       </c>
       <c r="D199" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="E199" s="32" t="s">
         <v>444</v>
-      </c>
-      <c r="E199" s="32" t="s">
-        <v>445</v>
       </c>
       <c r="F199" s="33"/>
       <c r="G199" s="34"/>
@@ -14227,10 +14231,10 @@
         <v>66</v>
       </c>
       <c r="D200" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E200" s="32" t="s">
         <v>446</v>
-      </c>
-      <c r="E200" s="32" t="s">
-        <v>447</v>
       </c>
       <c r="F200" s="33"/>
       <c r="G200" s="34"/>
@@ -14261,10 +14265,10 @@
         <v>66</v>
       </c>
       <c r="D201" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="E201" s="32" t="s">
         <v>448</v>
-      </c>
-      <c r="E201" s="32" t="s">
-        <v>449</v>
       </c>
       <c r="F201" s="33"/>
       <c r="G201" s="34"/>
@@ -14295,10 +14299,10 @@
         <v>66</v>
       </c>
       <c r="D202" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="E202" s="32" t="s">
         <v>450</v>
-      </c>
-      <c r="E202" s="32" t="s">
-        <v>451</v>
       </c>
       <c r="F202" s="33"/>
       <c r="G202" s="34"/>
@@ -14329,10 +14333,10 @@
         <v>71</v>
       </c>
       <c r="D203" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="E203" s="32" t="s">
         <v>452</v>
-      </c>
-      <c r="E203" s="32" t="s">
-        <v>453</v>
       </c>
       <c r="F203" s="33"/>
       <c r="G203" s="34"/>
@@ -14363,10 +14367,10 @@
         <v>71</v>
       </c>
       <c r="D204" s="31" t="s">
+        <v>453</v>
+      </c>
+      <c r="E204" s="32" t="s">
         <v>454</v>
-      </c>
-      <c r="E204" s="32" t="s">
-        <v>455</v>
       </c>
       <c r="F204" s="33"/>
       <c r="G204" s="34"/>
@@ -14397,10 +14401,10 @@
         <v>71</v>
       </c>
       <c r="D205" s="31" t="s">
+        <v>455</v>
+      </c>
+      <c r="E205" s="32" t="s">
         <v>456</v>
-      </c>
-      <c r="E205" s="32" t="s">
-        <v>457</v>
       </c>
       <c r="F205" s="33"/>
       <c r="G205" s="34"/>
@@ -14431,10 +14435,10 @@
         <v>71</v>
       </c>
       <c r="D206" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="E206" s="32" t="s">
         <v>458</v>
-      </c>
-      <c r="E206" s="32" t="s">
-        <v>459</v>
       </c>
       <c r="F206" s="33"/>
       <c r="G206" s="34"/>
@@ -14465,10 +14469,10 @@
         <v>76</v>
       </c>
       <c r="D207" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="E207" s="32" t="s">
         <v>460</v>
-      </c>
-      <c r="E207" s="32" t="s">
-        <v>461</v>
       </c>
       <c r="F207" s="33"/>
       <c r="G207" s="34"/>
@@ -14499,10 +14503,10 @@
         <v>76</v>
       </c>
       <c r="D208" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="E208" s="32" t="s">
         <v>462</v>
-      </c>
-      <c r="E208" s="32" t="s">
-        <v>463</v>
       </c>
       <c r="F208" s="33"/>
       <c r="G208" s="34"/>
@@ -14533,10 +14537,10 @@
         <v>76</v>
       </c>
       <c r="D209" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="E209" s="32" t="s">
         <v>464</v>
-      </c>
-      <c r="E209" s="32" t="s">
-        <v>465</v>
       </c>
       <c r="F209" s="33"/>
       <c r="G209" s="34"/>
@@ -14567,10 +14571,10 @@
         <v>76</v>
       </c>
       <c r="D210" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="E210" s="32" t="s">
         <v>466</v>
-      </c>
-      <c r="E210" s="32" t="s">
-        <v>467</v>
       </c>
       <c r="F210" s="33"/>
       <c r="G210" s="34"/>
@@ -14601,10 +14605,10 @@
         <v>49</v>
       </c>
       <c r="D211" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="E211" s="32" t="s">
         <v>468</v>
-      </c>
-      <c r="E211" s="32" t="s">
-        <v>469</v>
       </c>
       <c r="F211" s="33"/>
       <c r="G211" s="34"/>
@@ -14635,42 +14639,42 @@
         <v>56</v>
       </c>
       <c r="D212" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="E212" s="32" t="s">
         <v>470</v>
       </c>
-      <c r="E212" s="32" t="s">
+      <c r="F212" s="49">
+        <v>44999.0</v>
+      </c>
+      <c r="G212" s="50">
+        <v>44999.63429398148</v>
+      </c>
+      <c r="H212" s="51" t="s">
         <v>471</v>
       </c>
-      <c r="F212" s="47">
-        <v>44999.0</v>
-      </c>
-      <c r="G212" s="48">
-        <v>44999.63429398148</v>
-      </c>
-      <c r="H212" s="49" t="s">
+      <c r="I212" s="51" t="s">
         <v>472</v>
       </c>
-      <c r="I212" s="49" t="s">
-        <v>473</v>
-      </c>
       <c r="J212" s="35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K212" s="35"/>
       <c r="L212" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M212" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N212" s="35"/>
       <c r="O212" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="P212" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q212" s="35" t="s">
         <v>424</v>
-      </c>
-      <c r="P212" s="35" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q212" s="35" t="s">
-        <v>425</v>
       </c>
       <c r="R212" s="36"/>
       <c r="S212" s="37"/>
@@ -14689,10 +14693,10 @@
         <v>86</v>
       </c>
       <c r="D213" s="31" t="s">
+        <v>474</v>
+      </c>
+      <c r="E213" s="32" t="s">
         <v>475</v>
-      </c>
-      <c r="E213" s="32" t="s">
-        <v>476</v>
       </c>
       <c r="F213" s="33"/>
       <c r="G213" s="34"/>
@@ -14723,10 +14727,10 @@
         <v>61</v>
       </c>
       <c r="D214" s="31" t="s">
+        <v>476</v>
+      </c>
+      <c r="E214" s="32" t="s">
         <v>477</v>
-      </c>
-      <c r="E214" s="32" t="s">
-        <v>478</v>
       </c>
       <c r="F214" s="33"/>
       <c r="G214" s="34"/>
@@ -14757,10 +14761,10 @@
         <v>81</v>
       </c>
       <c r="D215" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="E215" s="32" t="s">
         <v>479</v>
-      </c>
-      <c r="E215" s="32" t="s">
-        <v>480</v>
       </c>
       <c r="F215" s="33"/>
       <c r="G215" s="34"/>
@@ -14791,10 +14795,10 @@
         <v>66</v>
       </c>
       <c r="D216" s="31" t="s">
+        <v>480</v>
+      </c>
+      <c r="E216" s="32" t="s">
         <v>481</v>
-      </c>
-      <c r="E216" s="32" t="s">
-        <v>482</v>
       </c>
       <c r="F216" s="33"/>
       <c r="G216" s="34"/>
@@ -14825,10 +14829,10 @@
         <v>71</v>
       </c>
       <c r="D217" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="E217" s="32" t="s">
         <v>483</v>
-      </c>
-      <c r="E217" s="32" t="s">
-        <v>484</v>
       </c>
       <c r="F217" s="33"/>
       <c r="G217" s="34"/>
@@ -14859,10 +14863,10 @@
         <v>76</v>
       </c>
       <c r="D218" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="E218" s="32" t="s">
         <v>485</v>
-      </c>
-      <c r="E218" s="32" t="s">
-        <v>486</v>
       </c>
       <c r="F218" s="33"/>
       <c r="G218" s="34"/>
@@ -14893,10 +14897,10 @@
         <v>49</v>
       </c>
       <c r="D219" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="E219" s="32" t="s">
         <v>487</v>
-      </c>
-      <c r="E219" s="32" t="s">
-        <v>488</v>
       </c>
       <c r="F219" s="33"/>
       <c r="G219" s="34"/>
@@ -14927,42 +14931,42 @@
         <v>56</v>
       </c>
       <c r="D220" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="E220" s="32" t="s">
         <v>489</v>
       </c>
-      <c r="E220" s="32" t="s">
+      <c r="F220" s="49">
+        <v>44999.0</v>
+      </c>
+      <c r="G220" s="50">
+        <v>44999.63506944444</v>
+      </c>
+      <c r="H220" s="52" t="s">
         <v>490</v>
       </c>
-      <c r="F220" s="47">
-        <v>44999.0</v>
-      </c>
-      <c r="G220" s="48">
-        <v>44999.63506944444</v>
-      </c>
-      <c r="H220" s="50" t="s">
-        <v>491</v>
-      </c>
-      <c r="I220" s="50" t="s">
-        <v>473</v>
+      <c r="I220" s="52" t="s">
+        <v>472</v>
       </c>
       <c r="J220" s="35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K220" s="35"/>
       <c r="L220" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M220" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N220" s="35"/>
       <c r="O220" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="P220" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q220" s="35" t="s">
         <v>424</v>
-      </c>
-      <c r="P220" s="35" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q220" s="35" t="s">
-        <v>425</v>
       </c>
       <c r="R220" s="36"/>
       <c r="S220" s="37"/>
@@ -14981,10 +14985,10 @@
         <v>86</v>
       </c>
       <c r="D221" s="31" t="s">
+        <v>491</v>
+      </c>
+      <c r="E221" s="32" t="s">
         <v>492</v>
-      </c>
-      <c r="E221" s="32" t="s">
-        <v>493</v>
       </c>
       <c r="F221" s="33"/>
       <c r="G221" s="34"/>
@@ -15015,10 +15019,10 @@
         <v>61</v>
       </c>
       <c r="D222" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="E222" s="32" t="s">
         <v>494</v>
-      </c>
-      <c r="E222" s="32" t="s">
-        <v>495</v>
       </c>
       <c r="F222" s="33"/>
       <c r="G222" s="34"/>
@@ -15049,10 +15053,10 @@
         <v>81</v>
       </c>
       <c r="D223" s="31" t="s">
+        <v>495</v>
+      </c>
+      <c r="E223" s="32" t="s">
         <v>496</v>
-      </c>
-      <c r="E223" s="32" t="s">
-        <v>497</v>
       </c>
       <c r="F223" s="33"/>
       <c r="G223" s="34"/>
@@ -15083,10 +15087,10 @@
         <v>66</v>
       </c>
       <c r="D224" s="31" t="s">
+        <v>497</v>
+      </c>
+      <c r="E224" s="32" t="s">
         <v>498</v>
-      </c>
-      <c r="E224" s="32" t="s">
-        <v>499</v>
       </c>
       <c r="F224" s="33"/>
       <c r="G224" s="34"/>
@@ -15117,10 +15121,10 @@
         <v>71</v>
       </c>
       <c r="D225" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="E225" s="32" t="s">
         <v>500</v>
-      </c>
-      <c r="E225" s="32" t="s">
-        <v>501</v>
       </c>
       <c r="F225" s="33"/>
       <c r="G225" s="34"/>
@@ -15151,10 +15155,10 @@
         <v>76</v>
       </c>
       <c r="D226" s="31" t="s">
+        <v>501</v>
+      </c>
+      <c r="E226" s="32" t="s">
         <v>502</v>
-      </c>
-      <c r="E226" s="32" t="s">
-        <v>503</v>
       </c>
       <c r="F226" s="33"/>
       <c r="G226" s="34"/>
@@ -15185,10 +15189,10 @@
         <v>49</v>
       </c>
       <c r="D227" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="E227" s="32" t="s">
         <v>504</v>
-      </c>
-      <c r="E227" s="32" t="s">
-        <v>505</v>
       </c>
       <c r="F227" s="33"/>
       <c r="G227" s="34"/>
@@ -15203,7 +15207,7 @@
       <c r="P227" s="35"/>
       <c r="Q227" s="35"/>
       <c r="R227" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S227" s="37"/>
       <c r="T227" s="38" t="s">
@@ -15221,10 +15225,10 @@
         <v>56</v>
       </c>
       <c r="D228" s="31" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E228" s="32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F228" s="33"/>
       <c r="G228" s="34"/>
@@ -15237,13 +15241,13 @@
       <c r="N228" s="35"/>
       <c r="O228" s="35"/>
       <c r="P228" s="35" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q228" s="35" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="R228" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S228" s="37"/>
       <c r="T228" s="38" t="s">
@@ -15261,10 +15265,10 @@
         <v>86</v>
       </c>
       <c r="D229" s="31" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E229" s="32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F229" s="33"/>
       <c r="G229" s="34"/>
@@ -15279,7 +15283,7 @@
       <c r="P229" s="35"/>
       <c r="Q229" s="35"/>
       <c r="R229" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S229" s="37"/>
       <c r="T229" s="38" t="s">
@@ -15297,10 +15301,10 @@
         <v>61</v>
       </c>
       <c r="D230" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E230" s="32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F230" s="33"/>
       <c r="G230" s="34"/>
@@ -15315,7 +15319,7 @@
       <c r="P230" s="35"/>
       <c r="Q230" s="35"/>
       <c r="R230" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S230" s="37"/>
       <c r="T230" s="38" t="s">
@@ -15333,10 +15337,10 @@
         <v>81</v>
       </c>
       <c r="D231" s="31" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E231" s="32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F231" s="33"/>
       <c r="G231" s="34"/>
@@ -15351,7 +15355,7 @@
       <c r="P231" s="35"/>
       <c r="Q231" s="35"/>
       <c r="R231" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S231" s="37"/>
       <c r="T231" s="38" t="s">
@@ -15369,10 +15373,10 @@
         <v>66</v>
       </c>
       <c r="D232" s="31" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E232" s="32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F232" s="33"/>
       <c r="G232" s="34"/>
@@ -15387,7 +15391,7 @@
       <c r="P232" s="35"/>
       <c r="Q232" s="35"/>
       <c r="R232" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S232" s="37"/>
       <c r="T232" s="38" t="s">
@@ -15405,10 +15409,10 @@
         <v>71</v>
       </c>
       <c r="D233" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E233" s="32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F233" s="33"/>
       <c r="G233" s="34"/>
@@ -15423,7 +15427,7 @@
       <c r="P233" s="35"/>
       <c r="Q233" s="35"/>
       <c r="R233" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S233" s="37"/>
       <c r="T233" s="38" t="s">
@@ -15441,10 +15445,10 @@
         <v>76</v>
       </c>
       <c r="D234" s="31" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E234" s="32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F234" s="33"/>
       <c r="G234" s="34"/>
@@ -15459,7 +15463,7 @@
       <c r="P234" s="35"/>
       <c r="Q234" s="35"/>
       <c r="R234" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S234" s="37"/>
       <c r="T234" s="38" t="s">
@@ -15477,10 +15481,10 @@
         <v>49</v>
       </c>
       <c r="D235" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="E235" s="32" t="s">
         <v>514</v>
-      </c>
-      <c r="E235" s="32" t="s">
-        <v>515</v>
       </c>
       <c r="F235" s="33"/>
       <c r="G235" s="34"/>
@@ -15511,10 +15515,10 @@
         <v>49</v>
       </c>
       <c r="D236" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="E236" s="32" t="s">
         <v>516</v>
-      </c>
-      <c r="E236" s="32" t="s">
-        <v>517</v>
       </c>
       <c r="F236" s="33"/>
       <c r="G236" s="34"/>
@@ -15545,10 +15549,10 @@
         <v>49</v>
       </c>
       <c r="D237" s="31" t="s">
+        <v>517</v>
+      </c>
+      <c r="E237" s="32" t="s">
         <v>518</v>
-      </c>
-      <c r="E237" s="32" t="s">
-        <v>519</v>
       </c>
       <c r="F237" s="33"/>
       <c r="G237" s="34"/>
@@ -15579,10 +15583,10 @@
         <v>49</v>
       </c>
       <c r="D238" s="31" t="s">
+        <v>519</v>
+      </c>
+      <c r="E238" s="32" t="s">
         <v>520</v>
-      </c>
-      <c r="E238" s="32" t="s">
-        <v>521</v>
       </c>
       <c r="F238" s="33"/>
       <c r="G238" s="34"/>
@@ -15613,10 +15617,10 @@
         <v>49</v>
       </c>
       <c r="D239" s="31" t="s">
+        <v>521</v>
+      </c>
+      <c r="E239" s="32" t="s">
         <v>522</v>
-      </c>
-      <c r="E239" s="32" t="s">
-        <v>523</v>
       </c>
       <c r="F239" s="33"/>
       <c r="G239" s="34"/>
@@ -15647,10 +15651,10 @@
         <v>49</v>
       </c>
       <c r="D240" s="31" t="s">
+        <v>523</v>
+      </c>
+      <c r="E240" s="32" t="s">
         <v>524</v>
-      </c>
-      <c r="E240" s="32" t="s">
-        <v>525</v>
       </c>
       <c r="F240" s="33"/>
       <c r="G240" s="34"/>
@@ -15681,10 +15685,10 @@
         <v>49</v>
       </c>
       <c r="D241" s="31" t="s">
+        <v>525</v>
+      </c>
+      <c r="E241" s="32" t="s">
         <v>526</v>
-      </c>
-      <c r="E241" s="32" t="s">
-        <v>527</v>
       </c>
       <c r="F241" s="33"/>
       <c r="G241" s="34"/>
@@ -15715,10 +15719,10 @@
         <v>49</v>
       </c>
       <c r="D242" s="31" t="s">
+        <v>527</v>
+      </c>
+      <c r="E242" s="32" t="s">
         <v>528</v>
-      </c>
-      <c r="E242" s="32" t="s">
-        <v>529</v>
       </c>
       <c r="F242" s="33"/>
       <c r="G242" s="34"/>
@@ -15749,10 +15753,10 @@
         <v>49</v>
       </c>
       <c r="D243" s="31" t="s">
+        <v>529</v>
+      </c>
+      <c r="E243" s="32" t="s">
         <v>530</v>
-      </c>
-      <c r="E243" s="32" t="s">
-        <v>531</v>
       </c>
       <c r="F243" s="33"/>
       <c r="G243" s="34"/>
@@ -15783,10 +15787,10 @@
         <v>49</v>
       </c>
       <c r="D244" s="31" t="s">
+        <v>531</v>
+      </c>
+      <c r="E244" s="32" t="s">
         <v>532</v>
-      </c>
-      <c r="E244" s="32" t="s">
-        <v>533</v>
       </c>
       <c r="F244" s="33"/>
       <c r="G244" s="34"/>
@@ -15817,10 +15821,10 @@
         <v>49</v>
       </c>
       <c r="D245" s="31" t="s">
+        <v>533</v>
+      </c>
+      <c r="E245" s="32" t="s">
         <v>534</v>
-      </c>
-      <c r="E245" s="32" t="s">
-        <v>535</v>
       </c>
       <c r="F245" s="33"/>
       <c r="G245" s="34"/>
@@ -15851,46 +15855,46 @@
         <v>56</v>
       </c>
       <c r="D246" s="31" t="s">
+        <v>535</v>
+      </c>
+      <c r="E246" s="32" t="s">
         <v>536</v>
       </c>
-      <c r="E246" s="32" t="s">
+      <c r="F246" s="49">
+        <v>44966.0</v>
+      </c>
+      <c r="G246" s="50">
+        <v>44966.4349189815</v>
+      </c>
+      <c r="H246" s="51" t="s">
         <v>537</v>
       </c>
-      <c r="F246" s="47">
-        <v>44966.0</v>
-      </c>
-      <c r="G246" s="48">
-        <v>44966.4349189815</v>
-      </c>
-      <c r="H246" s="49" t="s">
+      <c r="I246" s="51" t="s">
         <v>538</v>
       </c>
-      <c r="I246" s="49" t="s">
-        <v>539</v>
-      </c>
       <c r="J246" s="35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K246" s="35"/>
       <c r="L246" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M246" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N246" s="35"/>
       <c r="O246" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="P246" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q246" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="P246" s="35" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q246" s="35" t="s">
-        <v>425</v>
-      </c>
       <c r="R246" s="36"/>
-      <c r="S246" s="51" t="s">
-        <v>540</v>
+      <c r="S246" s="53" t="s">
+        <v>539</v>
       </c>
       <c r="T246" s="38" t="s">
         <v>55</v>
@@ -15907,46 +15911,46 @@
         <v>56</v>
       </c>
       <c r="D247" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="E247" s="32" t="s">
         <v>541</v>
       </c>
-      <c r="E247" s="32" t="s">
+      <c r="F247" s="49">
+        <v>44966.0</v>
+      </c>
+      <c r="G247" s="50">
+        <v>44966.4467824074</v>
+      </c>
+      <c r="H247" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="F247" s="47">
-        <v>44966.0</v>
-      </c>
-      <c r="G247" s="48">
-        <v>44966.4467824074</v>
-      </c>
-      <c r="H247" s="49" t="s">
+      <c r="I247" s="51" t="s">
         <v>543</v>
       </c>
-      <c r="I247" s="49" t="s">
-        <v>544</v>
-      </c>
       <c r="J247" s="35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K247" s="35"/>
       <c r="L247" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M247" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N247" s="35"/>
       <c r="O247" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="P247" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q247" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="P247" s="35" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q247" s="35" t="s">
-        <v>425</v>
-      </c>
       <c r="R247" s="36"/>
-      <c r="S247" s="51" t="s">
-        <v>545</v>
+      <c r="S247" s="53" t="s">
+        <v>544</v>
       </c>
       <c r="T247" s="38" t="s">
         <v>55</v>
@@ -15963,46 +15967,46 @@
         <v>56</v>
       </c>
       <c r="D248" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="E248" s="32" t="s">
         <v>546</v>
       </c>
-      <c r="E248" s="32" t="s">
+      <c r="F248" s="49">
+        <v>44966.0</v>
+      </c>
+      <c r="G248" s="50">
+        <v>44966.4568865741</v>
+      </c>
+      <c r="H248" s="51" t="s">
         <v>547</v>
       </c>
-      <c r="F248" s="47">
-        <v>44966.0</v>
-      </c>
-      <c r="G248" s="48">
-        <v>44966.4568865741</v>
-      </c>
-      <c r="H248" s="49" t="s">
+      <c r="I248" s="51" t="s">
         <v>548</v>
       </c>
-      <c r="I248" s="49" t="s">
-        <v>549</v>
-      </c>
       <c r="J248" s="35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K248" s="35"/>
       <c r="L248" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M248" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N248" s="35"/>
       <c r="O248" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="P248" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q248" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="P248" s="35" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q248" s="35" t="s">
-        <v>425</v>
-      </c>
       <c r="R248" s="36"/>
-      <c r="S248" s="51" t="s">
-        <v>550</v>
+      <c r="S248" s="53" t="s">
+        <v>549</v>
       </c>
       <c r="T248" s="38" t="s">
         <v>55</v>
@@ -16019,46 +16023,46 @@
         <v>56</v>
       </c>
       <c r="D249" s="31" t="s">
+        <v>550</v>
+      </c>
+      <c r="E249" s="32" t="s">
         <v>551</v>
       </c>
-      <c r="E249" s="32" t="s">
+      <c r="F249" s="49">
+        <v>44966.0</v>
+      </c>
+      <c r="G249" s="50">
+        <v>44966.4725578704</v>
+      </c>
+      <c r="H249" s="51" t="s">
         <v>552</v>
       </c>
-      <c r="F249" s="47">
-        <v>44966.0</v>
-      </c>
-      <c r="G249" s="48">
-        <v>44966.4725578704</v>
-      </c>
-      <c r="H249" s="49" t="s">
+      <c r="I249" s="51" t="s">
         <v>553</v>
       </c>
-      <c r="I249" s="49" t="s">
-        <v>554</v>
-      </c>
       <c r="J249" s="35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K249" s="35"/>
       <c r="L249" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M249" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N249" s="35"/>
       <c r="O249" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="P249" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q249" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="P249" s="35" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q249" s="35" t="s">
-        <v>425</v>
-      </c>
       <c r="R249" s="36"/>
-      <c r="S249" s="51" t="s">
-        <v>555</v>
+      <c r="S249" s="53" t="s">
+        <v>554</v>
       </c>
       <c r="T249" s="38" t="s">
         <v>55</v>
@@ -16075,46 +16079,46 @@
         <v>56</v>
       </c>
       <c r="D250" s="31" t="s">
+        <v>555</v>
+      </c>
+      <c r="E250" s="32" t="s">
         <v>556</v>
       </c>
-      <c r="E250" s="32" t="s">
+      <c r="F250" s="49">
+        <v>44966.0</v>
+      </c>
+      <c r="G250" s="50">
+        <v>44966.4705324074</v>
+      </c>
+      <c r="H250" s="51" t="s">
         <v>557</v>
       </c>
-      <c r="F250" s="47">
-        <v>44966.0</v>
-      </c>
-      <c r="G250" s="48">
-        <v>44966.4705324074</v>
-      </c>
-      <c r="H250" s="49" t="s">
+      <c r="I250" s="51" t="s">
         <v>558</v>
       </c>
-      <c r="I250" s="49" t="s">
-        <v>559</v>
-      </c>
       <c r="J250" s="35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K250" s="35"/>
       <c r="L250" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M250" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N250" s="35"/>
       <c r="O250" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="P250" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q250" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="P250" s="35" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q250" s="35" t="s">
-        <v>425</v>
-      </c>
       <c r="R250" s="36"/>
-      <c r="S250" s="51" t="s">
-        <v>560</v>
+      <c r="S250" s="53" t="s">
+        <v>559</v>
       </c>
       <c r="T250" s="38" t="s">
         <v>55</v>
@@ -16131,46 +16135,46 @@
         <v>56</v>
       </c>
       <c r="D251" s="31" t="s">
+        <v>560</v>
+      </c>
+      <c r="E251" s="32" t="s">
         <v>561</v>
       </c>
-      <c r="E251" s="32" t="s">
+      <c r="F251" s="49">
+        <v>44966.0</v>
+      </c>
+      <c r="G251" s="50">
+        <v>44966.4772337963</v>
+      </c>
+      <c r="H251" s="51" t="s">
         <v>562</v>
       </c>
-      <c r="F251" s="47">
-        <v>44966.0</v>
-      </c>
-      <c r="G251" s="48">
-        <v>44966.4772337963</v>
-      </c>
-      <c r="H251" s="49" t="s">
+      <c r="I251" s="51" t="s">
         <v>563</v>
       </c>
-      <c r="I251" s="49" t="s">
-        <v>564</v>
-      </c>
       <c r="J251" s="35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K251" s="35"/>
       <c r="L251" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M251" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N251" s="35"/>
       <c r="O251" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="P251" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q251" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="P251" s="35" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q251" s="35" t="s">
-        <v>425</v>
-      </c>
       <c r="R251" s="36"/>
-      <c r="S251" s="51" t="s">
-        <v>565</v>
+      <c r="S251" s="53" t="s">
+        <v>564</v>
       </c>
       <c r="T251" s="38" t="s">
         <v>55</v>
@@ -16187,46 +16191,46 @@
         <v>56</v>
       </c>
       <c r="D252" s="31" t="s">
+        <v>565</v>
+      </c>
+      <c r="E252" s="32" t="s">
         <v>566</v>
       </c>
-      <c r="E252" s="32" t="s">
+      <c r="F252" s="49">
+        <v>44966.0</v>
+      </c>
+      <c r="G252" s="50">
+        <v>44966.4889699074</v>
+      </c>
+      <c r="H252" s="51" t="s">
         <v>567</v>
       </c>
-      <c r="F252" s="47">
-        <v>44966.0</v>
-      </c>
-      <c r="G252" s="48">
-        <v>44966.4889699074</v>
-      </c>
-      <c r="H252" s="49" t="s">
+      <c r="I252" s="51" t="s">
         <v>568</v>
       </c>
-      <c r="I252" s="49" t="s">
-        <v>569</v>
-      </c>
       <c r="J252" s="35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K252" s="35"/>
       <c r="L252" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M252" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N252" s="35"/>
       <c r="O252" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="P252" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q252" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="P252" s="35" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q252" s="35" t="s">
-        <v>425</v>
-      </c>
       <c r="R252" s="36"/>
-      <c r="S252" s="51" t="s">
-        <v>570</v>
+      <c r="S252" s="53" t="s">
+        <v>569</v>
       </c>
       <c r="T252" s="38" t="s">
         <v>55</v>
@@ -16243,46 +16247,46 @@
         <v>56</v>
       </c>
       <c r="D253" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="E253" s="32" t="s">
         <v>571</v>
       </c>
-      <c r="E253" s="32" t="s">
+      <c r="F253" s="49">
+        <v>44966.0</v>
+      </c>
+      <c r="G253" s="50">
+        <v>44966.4954513889</v>
+      </c>
+      <c r="H253" s="51" t="s">
         <v>572</v>
       </c>
-      <c r="F253" s="47">
-        <v>44966.0</v>
-      </c>
-      <c r="G253" s="48">
-        <v>44966.4954513889</v>
-      </c>
-      <c r="H253" s="49" t="s">
+      <c r="I253" s="51" t="s">
         <v>573</v>
       </c>
-      <c r="I253" s="49" t="s">
-        <v>574</v>
-      </c>
       <c r="J253" s="35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K253" s="35"/>
       <c r="L253" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M253" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N253" s="35"/>
       <c r="O253" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="P253" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q253" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="P253" s="35" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q253" s="35" t="s">
-        <v>425</v>
-      </c>
       <c r="R253" s="36"/>
-      <c r="S253" s="51" t="s">
-        <v>575</v>
+      <c r="S253" s="53" t="s">
+        <v>574</v>
       </c>
       <c r="T253" s="38" t="s">
         <v>55</v>
@@ -16299,46 +16303,46 @@
         <v>56</v>
       </c>
       <c r="D254" s="31" t="s">
+        <v>575</v>
+      </c>
+      <c r="E254" s="32" t="s">
         <v>576</v>
       </c>
-      <c r="E254" s="32" t="s">
+      <c r="F254" s="49">
+        <v>44966.0</v>
+      </c>
+      <c r="G254" s="50">
+        <v>44966.5505902778</v>
+      </c>
+      <c r="H254" s="51" t="s">
         <v>577</v>
       </c>
-      <c r="F254" s="47">
-        <v>44966.0</v>
-      </c>
-      <c r="G254" s="48">
-        <v>44966.5505902778</v>
-      </c>
-      <c r="H254" s="49" t="s">
+      <c r="I254" s="51" t="s">
         <v>578</v>
       </c>
-      <c r="I254" s="49" t="s">
-        <v>579</v>
-      </c>
       <c r="J254" s="35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K254" s="35"/>
       <c r="L254" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M254" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N254" s="35"/>
       <c r="O254" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="P254" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q254" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="P254" s="35" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q254" s="35" t="s">
-        <v>425</v>
-      </c>
       <c r="R254" s="36"/>
-      <c r="S254" s="51" t="s">
-        <v>580</v>
+      <c r="S254" s="53" t="s">
+        <v>579</v>
       </c>
       <c r="T254" s="38" t="s">
         <v>55</v>
@@ -16355,20 +16359,20 @@
         <v>56</v>
       </c>
       <c r="D255" s="31" t="s">
+        <v>580</v>
+      </c>
+      <c r="E255" s="32" t="s">
         <v>581</v>
-      </c>
-      <c r="E255" s="32" t="s">
-        <v>582</v>
       </c>
       <c r="F255" s="33"/>
       <c r="G255" s="34"/>
       <c r="H255" s="34"/>
       <c r="I255" s="34"/>
       <c r="J255" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K255" s="35" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L255" s="35"/>
       <c r="M255" s="35"/>
@@ -16393,44 +16397,44 @@
         <v>56</v>
       </c>
       <c r="D256" s="31" t="s">
+        <v>583</v>
+      </c>
+      <c r="E256" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="E256" s="32" t="s">
+      <c r="F256" s="49">
+        <v>44966.0</v>
+      </c>
+      <c r="G256" s="50">
+        <v>44966.6785069444</v>
+      </c>
+      <c r="H256" s="51" t="s">
         <v>585</v>
       </c>
-      <c r="F256" s="47">
-        <v>44966.0</v>
-      </c>
-      <c r="G256" s="48">
-        <v>44966.6785069444</v>
-      </c>
-      <c r="H256" s="49" t="s">
+      <c r="I256" s="51" t="s">
         <v>586</v>
       </c>
-      <c r="I256" s="49" t="s">
-        <v>587</v>
-      </c>
       <c r="J256" s="35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K256" s="35"/>
       <c r="L256" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M256" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N256" s="35"/>
       <c r="O256" s="35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P256" s="35" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q256" s="35"/>
       <c r="R256" s="36"/>
-      <c r="S256" s="52" t="s">
-        <v>588</v>
+      <c r="S256" s="54" t="s">
+        <v>587</v>
       </c>
       <c r="T256" s="38" t="s">
         <v>55</v>
@@ -16447,20 +16451,20 @@
         <v>56</v>
       </c>
       <c r="D257" s="31" t="s">
+        <v>588</v>
+      </c>
+      <c r="E257" s="32" t="s">
         <v>589</v>
-      </c>
-      <c r="E257" s="32" t="s">
-        <v>590</v>
       </c>
       <c r="F257" s="33"/>
       <c r="G257" s="34"/>
       <c r="H257" s="34"/>
       <c r="I257" s="34"/>
       <c r="J257" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K257" s="35" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L257" s="35"/>
       <c r="M257" s="35"/>
@@ -16485,10 +16489,10 @@
         <v>61</v>
       </c>
       <c r="D258" s="31" t="s">
+        <v>591</v>
+      </c>
+      <c r="E258" s="32" t="s">
         <v>592</v>
-      </c>
-      <c r="E258" s="32" t="s">
-        <v>593</v>
       </c>
       <c r="F258" s="33"/>
       <c r="G258" s="34"/>
@@ -16519,10 +16523,10 @@
         <v>61</v>
       </c>
       <c r="D259" s="31" t="s">
+        <v>593</v>
+      </c>
+      <c r="E259" s="32" t="s">
         <v>594</v>
-      </c>
-      <c r="E259" s="32" t="s">
-        <v>595</v>
       </c>
       <c r="F259" s="33"/>
       <c r="G259" s="34"/>
@@ -16553,10 +16557,10 @@
         <v>61</v>
       </c>
       <c r="D260" s="31" t="s">
+        <v>595</v>
+      </c>
+      <c r="E260" s="32" t="s">
         <v>596</v>
-      </c>
-      <c r="E260" s="32" t="s">
-        <v>597</v>
       </c>
       <c r="F260" s="33"/>
       <c r="G260" s="34"/>
@@ -16587,10 +16591,10 @@
         <v>61</v>
       </c>
       <c r="D261" s="31" t="s">
+        <v>597</v>
+      </c>
+      <c r="E261" s="32" t="s">
         <v>598</v>
-      </c>
-      <c r="E261" s="32" t="s">
-        <v>599</v>
       </c>
       <c r="F261" s="33"/>
       <c r="G261" s="34"/>
@@ -16621,10 +16625,10 @@
         <v>61</v>
       </c>
       <c r="D262" s="31" t="s">
+        <v>599</v>
+      </c>
+      <c r="E262" s="32" t="s">
         <v>600</v>
-      </c>
-      <c r="E262" s="32" t="s">
-        <v>601</v>
       </c>
       <c r="F262" s="33"/>
       <c r="G262" s="34"/>
@@ -16655,10 +16659,10 @@
         <v>61</v>
       </c>
       <c r="D263" s="31" t="s">
+        <v>601</v>
+      </c>
+      <c r="E263" s="32" t="s">
         <v>602</v>
-      </c>
-      <c r="E263" s="32" t="s">
-        <v>603</v>
       </c>
       <c r="F263" s="33"/>
       <c r="G263" s="34"/>
@@ -16689,10 +16693,10 @@
         <v>61</v>
       </c>
       <c r="D264" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="E264" s="32" t="s">
         <v>604</v>
-      </c>
-      <c r="E264" s="32" t="s">
-        <v>605</v>
       </c>
       <c r="F264" s="33"/>
       <c r="G264" s="34"/>
@@ -16723,10 +16727,10 @@
         <v>61</v>
       </c>
       <c r="D265" s="31" t="s">
+        <v>605</v>
+      </c>
+      <c r="E265" s="32" t="s">
         <v>606</v>
-      </c>
-      <c r="E265" s="32" t="s">
-        <v>607</v>
       </c>
       <c r="F265" s="33"/>
       <c r="G265" s="34"/>
@@ -16757,10 +16761,10 @@
         <v>61</v>
       </c>
       <c r="D266" s="31" t="s">
+        <v>607</v>
+      </c>
+      <c r="E266" s="32" t="s">
         <v>608</v>
-      </c>
-      <c r="E266" s="32" t="s">
-        <v>609</v>
       </c>
       <c r="F266" s="33"/>
       <c r="G266" s="34"/>
@@ -16791,10 +16795,10 @@
         <v>61</v>
       </c>
       <c r="D267" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="E267" s="32" t="s">
         <v>610</v>
-      </c>
-      <c r="E267" s="32" t="s">
-        <v>611</v>
       </c>
       <c r="F267" s="33"/>
       <c r="G267" s="34"/>
@@ -16825,10 +16829,10 @@
         <v>61</v>
       </c>
       <c r="D268" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="E268" s="32" t="s">
         <v>612</v>
-      </c>
-      <c r="E268" s="32" t="s">
-        <v>613</v>
       </c>
       <c r="F268" s="33"/>
       <c r="G268" s="34"/>
@@ -16859,10 +16863,10 @@
         <v>61</v>
       </c>
       <c r="D269" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="E269" s="32" t="s">
         <v>614</v>
-      </c>
-      <c r="E269" s="32" t="s">
-        <v>615</v>
       </c>
       <c r="F269" s="33"/>
       <c r="G269" s="34"/>
@@ -16893,10 +16897,10 @@
         <v>61</v>
       </c>
       <c r="D270" s="31" t="s">
+        <v>615</v>
+      </c>
+      <c r="E270" s="32" t="s">
         <v>616</v>
-      </c>
-      <c r="E270" s="32" t="s">
-        <v>617</v>
       </c>
       <c r="F270" s="33"/>
       <c r="G270" s="34"/>
@@ -16927,10 +16931,10 @@
         <v>61</v>
       </c>
       <c r="D271" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="E271" s="32" t="s">
         <v>618</v>
-      </c>
-      <c r="E271" s="32" t="s">
-        <v>619</v>
       </c>
       <c r="F271" s="33"/>
       <c r="G271" s="34"/>
@@ -16961,10 +16965,10 @@
         <v>61</v>
       </c>
       <c r="D272" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="E272" s="32" t="s">
         <v>620</v>
-      </c>
-      <c r="E272" s="32" t="s">
-        <v>621</v>
       </c>
       <c r="F272" s="33"/>
       <c r="G272" s="34"/>
@@ -16995,10 +16999,10 @@
         <v>61</v>
       </c>
       <c r="D273" s="31" t="s">
+        <v>621</v>
+      </c>
+      <c r="E273" s="32" t="s">
         <v>622</v>
-      </c>
-      <c r="E273" s="32" t="s">
-        <v>623</v>
       </c>
       <c r="F273" s="33"/>
       <c r="G273" s="34"/>
@@ -17029,10 +17033,10 @@
         <v>61</v>
       </c>
       <c r="D274" s="31" t="s">
+        <v>623</v>
+      </c>
+      <c r="E274" s="32" t="s">
         <v>624</v>
-      </c>
-      <c r="E274" s="32" t="s">
-        <v>625</v>
       </c>
       <c r="F274" s="33"/>
       <c r="G274" s="34"/>
@@ -17063,10 +17067,10 @@
         <v>61</v>
       </c>
       <c r="D275" s="31" t="s">
+        <v>625</v>
+      </c>
+      <c r="E275" s="32" t="s">
         <v>626</v>
-      </c>
-      <c r="E275" s="32" t="s">
-        <v>627</v>
       </c>
       <c r="F275" s="33"/>
       <c r="G275" s="34"/>
@@ -17097,10 +17101,10 @@
         <v>61</v>
       </c>
       <c r="D276" s="31" t="s">
+        <v>627</v>
+      </c>
+      <c r="E276" s="32" t="s">
         <v>628</v>
-      </c>
-      <c r="E276" s="32" t="s">
-        <v>629</v>
       </c>
       <c r="F276" s="33"/>
       <c r="G276" s="34"/>
@@ -17131,10 +17135,10 @@
         <v>66</v>
       </c>
       <c r="D277" s="31" t="s">
+        <v>629</v>
+      </c>
+      <c r="E277" s="32" t="s">
         <v>630</v>
-      </c>
-      <c r="E277" s="32" t="s">
-        <v>631</v>
       </c>
       <c r="F277" s="33"/>
       <c r="G277" s="34"/>
@@ -17165,10 +17169,10 @@
         <v>66</v>
       </c>
       <c r="D278" s="31" t="s">
+        <v>631</v>
+      </c>
+      <c r="E278" s="32" t="s">
         <v>632</v>
-      </c>
-      <c r="E278" s="32" t="s">
-        <v>633</v>
       </c>
       <c r="F278" s="33"/>
       <c r="G278" s="34"/>
@@ -17199,10 +17203,10 @@
         <v>66</v>
       </c>
       <c r="D279" s="31" t="s">
+        <v>633</v>
+      </c>
+      <c r="E279" s="32" t="s">
         <v>634</v>
-      </c>
-      <c r="E279" s="32" t="s">
-        <v>635</v>
       </c>
       <c r="F279" s="33"/>
       <c r="G279" s="34"/>
@@ -17233,10 +17237,10 @@
         <v>66</v>
       </c>
       <c r="D280" s="31" t="s">
+        <v>635</v>
+      </c>
+      <c r="E280" s="32" t="s">
         <v>636</v>
-      </c>
-      <c r="E280" s="32" t="s">
-        <v>637</v>
       </c>
       <c r="F280" s="33"/>
       <c r="G280" s="34"/>
@@ -17267,10 +17271,10 @@
         <v>66</v>
       </c>
       <c r="D281" s="31" t="s">
+        <v>637</v>
+      </c>
+      <c r="E281" s="32" t="s">
         <v>638</v>
-      </c>
-      <c r="E281" s="32" t="s">
-        <v>639</v>
       </c>
       <c r="F281" s="33"/>
       <c r="G281" s="34"/>
@@ -17301,10 +17305,10 @@
         <v>66</v>
       </c>
       <c r="D282" s="31" t="s">
+        <v>639</v>
+      </c>
+      <c r="E282" s="32" t="s">
         <v>640</v>
-      </c>
-      <c r="E282" s="32" t="s">
-        <v>641</v>
       </c>
       <c r="F282" s="33"/>
       <c r="G282" s="34"/>
@@ -17335,10 +17339,10 @@
         <v>66</v>
       </c>
       <c r="D283" s="31" t="s">
+        <v>641</v>
+      </c>
+      <c r="E283" s="32" t="s">
         <v>642</v>
-      </c>
-      <c r="E283" s="32" t="s">
-        <v>643</v>
       </c>
       <c r="F283" s="33"/>
       <c r="G283" s="34"/>
@@ -17369,10 +17373,10 @@
         <v>66</v>
       </c>
       <c r="D284" s="31" t="s">
+        <v>643</v>
+      </c>
+      <c r="E284" s="32" t="s">
         <v>644</v>
-      </c>
-      <c r="E284" s="32" t="s">
-        <v>645</v>
       </c>
       <c r="F284" s="33"/>
       <c r="G284" s="34"/>
@@ -17403,10 +17407,10 @@
         <v>66</v>
       </c>
       <c r="D285" s="31" t="s">
+        <v>645</v>
+      </c>
+      <c r="E285" s="32" t="s">
         <v>646</v>
-      </c>
-      <c r="E285" s="32" t="s">
-        <v>647</v>
       </c>
       <c r="F285" s="33"/>
       <c r="G285" s="34"/>
@@ -17437,10 +17441,10 @@
         <v>66</v>
       </c>
       <c r="D286" s="31" t="s">
+        <v>647</v>
+      </c>
+      <c r="E286" s="32" t="s">
         <v>648</v>
-      </c>
-      <c r="E286" s="32" t="s">
-        <v>649</v>
       </c>
       <c r="F286" s="33"/>
       <c r="G286" s="34"/>
@@ -17471,10 +17475,10 @@
         <v>66</v>
       </c>
       <c r="D287" s="31" t="s">
+        <v>649</v>
+      </c>
+      <c r="E287" s="32" t="s">
         <v>650</v>
-      </c>
-      <c r="E287" s="32" t="s">
-        <v>651</v>
       </c>
       <c r="F287" s="33"/>
       <c r="G287" s="34"/>
@@ -17505,10 +17509,10 @@
         <v>66</v>
       </c>
       <c r="D288" s="31" t="s">
+        <v>651</v>
+      </c>
+      <c r="E288" s="32" t="s">
         <v>652</v>
-      </c>
-      <c r="E288" s="32" t="s">
-        <v>653</v>
       </c>
       <c r="F288" s="33"/>
       <c r="G288" s="34"/>
@@ -17539,10 +17543,10 @@
         <v>66</v>
       </c>
       <c r="D289" s="31" t="s">
+        <v>653</v>
+      </c>
+      <c r="E289" s="32" t="s">
         <v>654</v>
-      </c>
-      <c r="E289" s="32" t="s">
-        <v>655</v>
       </c>
       <c r="F289" s="33"/>
       <c r="G289" s="34"/>
@@ -17573,10 +17577,10 @@
         <v>71</v>
       </c>
       <c r="D290" s="31" t="s">
+        <v>655</v>
+      </c>
+      <c r="E290" s="32" t="s">
         <v>656</v>
-      </c>
-      <c r="E290" s="32" t="s">
-        <v>657</v>
       </c>
       <c r="F290" s="33"/>
       <c r="G290" s="34"/>
@@ -17607,10 +17611,10 @@
         <v>71</v>
       </c>
       <c r="D291" s="31" t="s">
+        <v>657</v>
+      </c>
+      <c r="E291" s="32" t="s">
         <v>658</v>
-      </c>
-      <c r="E291" s="32" t="s">
-        <v>659</v>
       </c>
       <c r="F291" s="33"/>
       <c r="G291" s="34"/>
@@ -17641,10 +17645,10 @@
         <v>71</v>
       </c>
       <c r="D292" s="31" t="s">
+        <v>659</v>
+      </c>
+      <c r="E292" s="32" t="s">
         <v>660</v>
-      </c>
-      <c r="E292" s="32" t="s">
-        <v>661</v>
       </c>
       <c r="F292" s="33"/>
       <c r="G292" s="34"/>
@@ -17675,10 +17679,10 @@
         <v>71</v>
       </c>
       <c r="D293" s="31" t="s">
+        <v>661</v>
+      </c>
+      <c r="E293" s="32" t="s">
         <v>662</v>
-      </c>
-      <c r="E293" s="32" t="s">
-        <v>663</v>
       </c>
       <c r="F293" s="33"/>
       <c r="G293" s="34"/>
@@ -17709,10 +17713,10 @@
         <v>71</v>
       </c>
       <c r="D294" s="31" t="s">
+        <v>663</v>
+      </c>
+      <c r="E294" s="32" t="s">
         <v>664</v>
-      </c>
-      <c r="E294" s="32" t="s">
-        <v>665</v>
       </c>
       <c r="F294" s="33"/>
       <c r="G294" s="34"/>
@@ -17743,10 +17747,10 @@
         <v>71</v>
       </c>
       <c r="D295" s="31" t="s">
+        <v>665</v>
+      </c>
+      <c r="E295" s="32" t="s">
         <v>666</v>
-      </c>
-      <c r="E295" s="32" t="s">
-        <v>667</v>
       </c>
       <c r="F295" s="33"/>
       <c r="G295" s="34"/>
@@ -17777,10 +17781,10 @@
         <v>71</v>
       </c>
       <c r="D296" s="31" t="s">
+        <v>667</v>
+      </c>
+      <c r="E296" s="32" t="s">
         <v>668</v>
-      </c>
-      <c r="E296" s="32" t="s">
-        <v>669</v>
       </c>
       <c r="F296" s="33"/>
       <c r="G296" s="34"/>
@@ -17811,10 +17815,10 @@
         <v>71</v>
       </c>
       <c r="D297" s="31" t="s">
+        <v>669</v>
+      </c>
+      <c r="E297" s="32" t="s">
         <v>670</v>
-      </c>
-      <c r="E297" s="32" t="s">
-        <v>671</v>
       </c>
       <c r="F297" s="33"/>
       <c r="G297" s="34"/>
@@ -17845,10 +17849,10 @@
         <v>71</v>
       </c>
       <c r="D298" s="31" t="s">
+        <v>671</v>
+      </c>
+      <c r="E298" s="32" t="s">
         <v>672</v>
-      </c>
-      <c r="E298" s="32" t="s">
-        <v>673</v>
       </c>
       <c r="F298" s="33"/>
       <c r="G298" s="34"/>
@@ -17879,10 +17883,10 @@
         <v>71</v>
       </c>
       <c r="D299" s="31" t="s">
+        <v>673</v>
+      </c>
+      <c r="E299" s="32" t="s">
         <v>674</v>
-      </c>
-      <c r="E299" s="32" t="s">
-        <v>675</v>
       </c>
       <c r="F299" s="33"/>
       <c r="G299" s="34"/>
@@ -17913,10 +17917,10 @@
         <v>71</v>
       </c>
       <c r="D300" s="31" t="s">
+        <v>675</v>
+      </c>
+      <c r="E300" s="32" t="s">
         <v>676</v>
-      </c>
-      <c r="E300" s="32" t="s">
-        <v>677</v>
       </c>
       <c r="F300" s="33"/>
       <c r="G300" s="34"/>
@@ -17947,10 +17951,10 @@
         <v>71</v>
       </c>
       <c r="D301" s="31" t="s">
+        <v>677</v>
+      </c>
+      <c r="E301" s="32" t="s">
         <v>678</v>
-      </c>
-      <c r="E301" s="32" t="s">
-        <v>679</v>
       </c>
       <c r="F301" s="33"/>
       <c r="G301" s="34"/>
@@ -17981,10 +17985,10 @@
         <v>71</v>
       </c>
       <c r="D302" s="31" t="s">
+        <v>679</v>
+      </c>
+      <c r="E302" s="32" t="s">
         <v>680</v>
-      </c>
-      <c r="E302" s="32" t="s">
-        <v>681</v>
       </c>
       <c r="F302" s="33"/>
       <c r="G302" s="34"/>
@@ -18015,10 +18019,10 @@
         <v>71</v>
       </c>
       <c r="D303" s="31" t="s">
+        <v>681</v>
+      </c>
+      <c r="E303" s="32" t="s">
         <v>682</v>
-      </c>
-      <c r="E303" s="32" t="s">
-        <v>683</v>
       </c>
       <c r="F303" s="33"/>
       <c r="G303" s="34"/>
@@ -18049,10 +18053,10 @@
         <v>71</v>
       </c>
       <c r="D304" s="31" t="s">
+        <v>683</v>
+      </c>
+      <c r="E304" s="32" t="s">
         <v>684</v>
-      </c>
-      <c r="E304" s="32" t="s">
-        <v>685</v>
       </c>
       <c r="F304" s="33"/>
       <c r="G304" s="34"/>
@@ -18083,10 +18087,10 @@
         <v>76</v>
       </c>
       <c r="D305" s="31" t="s">
+        <v>685</v>
+      </c>
+      <c r="E305" s="32" t="s">
         <v>686</v>
-      </c>
-      <c r="E305" s="32" t="s">
-        <v>687</v>
       </c>
       <c r="F305" s="33"/>
       <c r="G305" s="34"/>
@@ -18117,10 +18121,10 @@
         <v>76</v>
       </c>
       <c r="D306" s="31" t="s">
+        <v>687</v>
+      </c>
+      <c r="E306" s="32" t="s">
         <v>688</v>
-      </c>
-      <c r="E306" s="32" t="s">
-        <v>689</v>
       </c>
       <c r="F306" s="33"/>
       <c r="G306" s="34"/>
@@ -18151,10 +18155,10 @@
         <v>76</v>
       </c>
       <c r="D307" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="E307" s="32" t="s">
         <v>690</v>
-      </c>
-      <c r="E307" s="32" t="s">
-        <v>691</v>
       </c>
       <c r="F307" s="33"/>
       <c r="G307" s="34"/>
@@ -18185,10 +18189,10 @@
         <v>76</v>
       </c>
       <c r="D308" s="31" t="s">
+        <v>691</v>
+      </c>
+      <c r="E308" s="32" t="s">
         <v>692</v>
-      </c>
-      <c r="E308" s="32" t="s">
-        <v>693</v>
       </c>
       <c r="F308" s="33"/>
       <c r="G308" s="34"/>
@@ -18219,10 +18223,10 @@
         <v>76</v>
       </c>
       <c r="D309" s="31" t="s">
+        <v>693</v>
+      </c>
+      <c r="E309" s="32" t="s">
         <v>694</v>
-      </c>
-      <c r="E309" s="32" t="s">
-        <v>695</v>
       </c>
       <c r="F309" s="33"/>
       <c r="G309" s="34"/>
@@ -18253,10 +18257,10 @@
         <v>76</v>
       </c>
       <c r="D310" s="31" t="s">
+        <v>695</v>
+      </c>
+      <c r="E310" s="32" t="s">
         <v>696</v>
-      </c>
-      <c r="E310" s="32" t="s">
-        <v>697</v>
       </c>
       <c r="F310" s="33"/>
       <c r="G310" s="34"/>
@@ -18287,10 +18291,10 @@
         <v>76</v>
       </c>
       <c r="D311" s="31" t="s">
+        <v>697</v>
+      </c>
+      <c r="E311" s="32" t="s">
         <v>698</v>
-      </c>
-      <c r="E311" s="32" t="s">
-        <v>699</v>
       </c>
       <c r="F311" s="33"/>
       <c r="G311" s="34"/>
@@ -18321,10 +18325,10 @@
         <v>76</v>
       </c>
       <c r="D312" s="31" t="s">
+        <v>699</v>
+      </c>
+      <c r="E312" s="32" t="s">
         <v>700</v>
-      </c>
-      <c r="E312" s="32" t="s">
-        <v>701</v>
       </c>
       <c r="F312" s="33"/>
       <c r="G312" s="34"/>
@@ -18355,10 +18359,10 @@
         <v>76</v>
       </c>
       <c r="D313" s="31" t="s">
+        <v>701</v>
+      </c>
+      <c r="E313" s="32" t="s">
         <v>702</v>
-      </c>
-      <c r="E313" s="32" t="s">
-        <v>703</v>
       </c>
       <c r="F313" s="33"/>
       <c r="G313" s="34"/>
@@ -18389,10 +18393,10 @@
         <v>76</v>
       </c>
       <c r="D314" s="31" t="s">
+        <v>703</v>
+      </c>
+      <c r="E314" s="32" t="s">
         <v>704</v>
-      </c>
-      <c r="E314" s="32" t="s">
-        <v>705</v>
       </c>
       <c r="F314" s="33"/>
       <c r="G314" s="34"/>
@@ -18423,10 +18427,10 @@
         <v>76</v>
       </c>
       <c r="D315" s="31" t="s">
+        <v>705</v>
+      </c>
+      <c r="E315" s="32" t="s">
         <v>706</v>
-      </c>
-      <c r="E315" s="32" t="s">
-        <v>707</v>
       </c>
       <c r="F315" s="33"/>
       <c r="G315" s="34"/>
@@ -18457,10 +18461,10 @@
         <v>76</v>
       </c>
       <c r="D316" s="31" t="s">
+        <v>707</v>
+      </c>
+      <c r="E316" s="32" t="s">
         <v>708</v>
-      </c>
-      <c r="E316" s="32" t="s">
-        <v>709</v>
       </c>
       <c r="F316" s="33"/>
       <c r="G316" s="34"/>
@@ -18491,10 +18495,10 @@
         <v>76</v>
       </c>
       <c r="D317" s="31" t="s">
+        <v>709</v>
+      </c>
+      <c r="E317" s="32" t="s">
         <v>710</v>
-      </c>
-      <c r="E317" s="32" t="s">
-        <v>711</v>
       </c>
       <c r="F317" s="33"/>
       <c r="G317" s="34"/>
@@ -18525,10 +18529,10 @@
         <v>76</v>
       </c>
       <c r="D318" s="31" t="s">
+        <v>711</v>
+      </c>
+      <c r="E318" s="32" t="s">
         <v>712</v>
-      </c>
-      <c r="E318" s="32" t="s">
-        <v>713</v>
       </c>
       <c r="F318" s="33"/>
       <c r="G318" s="34"/>
@@ -18559,10 +18563,10 @@
         <v>76</v>
       </c>
       <c r="D319" s="31" t="s">
+        <v>713</v>
+      </c>
+      <c r="E319" s="32" t="s">
         <v>714</v>
-      </c>
-      <c r="E319" s="32" t="s">
-        <v>715</v>
       </c>
       <c r="F319" s="33"/>
       <c r="G319" s="34"/>
@@ -18593,10 +18597,10 @@
         <v>76</v>
       </c>
       <c r="D320" s="31" t="s">
+        <v>715</v>
+      </c>
+      <c r="E320" s="32" t="s">
         <v>716</v>
-      </c>
-      <c r="E320" s="32" t="s">
-        <v>717</v>
       </c>
       <c r="F320" s="33"/>
       <c r="G320" s="34"/>
@@ -18627,10 +18631,10 @@
         <v>76</v>
       </c>
       <c r="D321" s="31" t="s">
+        <v>717</v>
+      </c>
+      <c r="E321" s="32" t="s">
         <v>718</v>
-      </c>
-      <c r="E321" s="32" t="s">
-        <v>719</v>
       </c>
       <c r="F321" s="33"/>
       <c r="G321" s="34"/>
@@ -18661,10 +18665,10 @@
         <v>76</v>
       </c>
       <c r="D322" s="31" t="s">
+        <v>719</v>
+      </c>
+      <c r="E322" s="32" t="s">
         <v>720</v>
-      </c>
-      <c r="E322" s="32" t="s">
-        <v>721</v>
       </c>
       <c r="F322" s="33"/>
       <c r="G322" s="34"/>
@@ -18695,10 +18699,10 @@
         <v>76</v>
       </c>
       <c r="D323" s="31" t="s">
+        <v>721</v>
+      </c>
+      <c r="E323" s="32" t="s">
         <v>722</v>
-      </c>
-      <c r="E323" s="32" t="s">
-        <v>723</v>
       </c>
       <c r="F323" s="33"/>
       <c r="G323" s="34"/>
@@ -18729,10 +18733,10 @@
         <v>76</v>
       </c>
       <c r="D324" s="31" t="s">
+        <v>723</v>
+      </c>
+      <c r="E324" s="32" t="s">
         <v>724</v>
-      </c>
-      <c r="E324" s="32" t="s">
-        <v>725</v>
       </c>
       <c r="F324" s="33"/>
       <c r="G324" s="34"/>
@@ -18763,10 +18767,10 @@
         <v>76</v>
       </c>
       <c r="D325" s="31" t="s">
+        <v>725</v>
+      </c>
+      <c r="E325" s="32" t="s">
         <v>726</v>
-      </c>
-      <c r="E325" s="32" t="s">
-        <v>727</v>
       </c>
       <c r="F325" s="33"/>
       <c r="G325" s="34"/>
@@ -18797,10 +18801,10 @@
         <v>76</v>
       </c>
       <c r="D326" s="31" t="s">
+        <v>727</v>
+      </c>
+      <c r="E326" s="32" t="s">
         <v>728</v>
-      </c>
-      <c r="E326" s="32" t="s">
-        <v>729</v>
       </c>
       <c r="F326" s="33"/>
       <c r="G326" s="34"/>
@@ -18831,10 +18835,10 @@
         <v>76</v>
       </c>
       <c r="D327" s="31" t="s">
+        <v>729</v>
+      </c>
+      <c r="E327" s="32" t="s">
         <v>730</v>
-      </c>
-      <c r="E327" s="32" t="s">
-        <v>731</v>
       </c>
       <c r="F327" s="33"/>
       <c r="G327" s="34"/>
@@ -18865,10 +18869,10 @@
         <v>76</v>
       </c>
       <c r="D328" s="31" t="s">
+        <v>731</v>
+      </c>
+      <c r="E328" s="32" t="s">
         <v>732</v>
-      </c>
-      <c r="E328" s="32" t="s">
-        <v>733</v>
       </c>
       <c r="F328" s="33"/>
       <c r="G328" s="34"/>
@@ -18899,10 +18903,10 @@
         <v>76</v>
       </c>
       <c r="D329" s="31" t="s">
+        <v>733</v>
+      </c>
+      <c r="E329" s="32" t="s">
         <v>734</v>
-      </c>
-      <c r="E329" s="32" t="s">
-        <v>735</v>
       </c>
       <c r="F329" s="33"/>
       <c r="G329" s="34"/>
@@ -18933,10 +18937,10 @@
         <v>81</v>
       </c>
       <c r="D330" s="31" t="s">
+        <v>735</v>
+      </c>
+      <c r="E330" s="32" t="s">
         <v>736</v>
-      </c>
-      <c r="E330" s="32" t="s">
-        <v>737</v>
       </c>
       <c r="F330" s="33"/>
       <c r="G330" s="34"/>
@@ -18967,10 +18971,10 @@
         <v>81</v>
       </c>
       <c r="D331" s="31" t="s">
+        <v>737</v>
+      </c>
+      <c r="E331" s="32" t="s">
         <v>738</v>
-      </c>
-      <c r="E331" s="32" t="s">
-        <v>739</v>
       </c>
       <c r="F331" s="33"/>
       <c r="G331" s="34"/>
@@ -19001,10 +19005,10 @@
         <v>81</v>
       </c>
       <c r="D332" s="31" t="s">
+        <v>739</v>
+      </c>
+      <c r="E332" s="32" t="s">
         <v>740</v>
-      </c>
-      <c r="E332" s="32" t="s">
-        <v>741</v>
       </c>
       <c r="F332" s="33"/>
       <c r="G332" s="34"/>
@@ -19035,10 +19039,10 @@
         <v>81</v>
       </c>
       <c r="D333" s="31" t="s">
+        <v>741</v>
+      </c>
+      <c r="E333" s="32" t="s">
         <v>742</v>
-      </c>
-      <c r="E333" s="32" t="s">
-        <v>743</v>
       </c>
       <c r="F333" s="33"/>
       <c r="G333" s="34"/>
@@ -19069,10 +19073,10 @@
         <v>81</v>
       </c>
       <c r="D334" s="31" t="s">
+        <v>743</v>
+      </c>
+      <c r="E334" s="32" t="s">
         <v>744</v>
-      </c>
-      <c r="E334" s="32" t="s">
-        <v>745</v>
       </c>
       <c r="F334" s="33"/>
       <c r="G334" s="34"/>
@@ -19103,10 +19107,10 @@
         <v>81</v>
       </c>
       <c r="D335" s="31" t="s">
+        <v>745</v>
+      </c>
+      <c r="E335" s="32" t="s">
         <v>746</v>
-      </c>
-      <c r="E335" s="32" t="s">
-        <v>747</v>
       </c>
       <c r="F335" s="33"/>
       <c r="G335" s="34"/>
@@ -19137,10 +19141,10 @@
         <v>81</v>
       </c>
       <c r="D336" s="31" t="s">
+        <v>747</v>
+      </c>
+      <c r="E336" s="32" t="s">
         <v>748</v>
-      </c>
-      <c r="E336" s="32" t="s">
-        <v>749</v>
       </c>
       <c r="F336" s="33"/>
       <c r="G336" s="34"/>
@@ -19171,10 +19175,10 @@
         <v>81</v>
       </c>
       <c r="D337" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="E337" s="32" t="s">
         <v>750</v>
-      </c>
-      <c r="E337" s="32" t="s">
-        <v>751</v>
       </c>
       <c r="F337" s="33"/>
       <c r="G337" s="34"/>
@@ -19205,10 +19209,10 @@
         <v>81</v>
       </c>
       <c r="D338" s="31" t="s">
+        <v>751</v>
+      </c>
+      <c r="E338" s="32" t="s">
         <v>752</v>
-      </c>
-      <c r="E338" s="32" t="s">
-        <v>753</v>
       </c>
       <c r="F338" s="33"/>
       <c r="G338" s="34"/>
@@ -19239,10 +19243,10 @@
         <v>81</v>
       </c>
       <c r="D339" s="31" t="s">
+        <v>753</v>
+      </c>
+      <c r="E339" s="32" t="s">
         <v>754</v>
-      </c>
-      <c r="E339" s="32" t="s">
-        <v>755</v>
       </c>
       <c r="F339" s="33"/>
       <c r="G339" s="34"/>
@@ -19273,10 +19277,10 @@
         <v>81</v>
       </c>
       <c r="D340" s="31" t="s">
+        <v>755</v>
+      </c>
+      <c r="E340" s="32" t="s">
         <v>756</v>
-      </c>
-      <c r="E340" s="32" t="s">
-        <v>757</v>
       </c>
       <c r="F340" s="33"/>
       <c r="G340" s="34"/>
@@ -19307,10 +19311,10 @@
         <v>81</v>
       </c>
       <c r="D341" s="31" t="s">
+        <v>757</v>
+      </c>
+      <c r="E341" s="32" t="s">
         <v>758</v>
-      </c>
-      <c r="E341" s="32" t="s">
-        <v>759</v>
       </c>
       <c r="F341" s="33"/>
       <c r="G341" s="34"/>
@@ -19341,10 +19345,10 @@
         <v>81</v>
       </c>
       <c r="D342" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="E342" s="32" t="s">
         <v>760</v>
-      </c>
-      <c r="E342" s="32" t="s">
-        <v>761</v>
       </c>
       <c r="F342" s="33"/>
       <c r="G342" s="34"/>
@@ -19375,10 +19379,10 @@
         <v>81</v>
       </c>
       <c r="D343" s="31" t="s">
+        <v>761</v>
+      </c>
+      <c r="E343" s="32" t="s">
         <v>762</v>
-      </c>
-      <c r="E343" s="32" t="s">
-        <v>763</v>
       </c>
       <c r="F343" s="33"/>
       <c r="G343" s="34"/>
@@ -19409,10 +19413,10 @@
         <v>81</v>
       </c>
       <c r="D344" s="31" t="s">
+        <v>763</v>
+      </c>
+      <c r="E344" s="32" t="s">
         <v>764</v>
-      </c>
-      <c r="E344" s="32" t="s">
-        <v>765</v>
       </c>
       <c r="F344" s="33"/>
       <c r="G344" s="34"/>
@@ -19443,10 +19447,10 @@
         <v>81</v>
       </c>
       <c r="D345" s="31" t="s">
+        <v>765</v>
+      </c>
+      <c r="E345" s="32" t="s">
         <v>766</v>
-      </c>
-      <c r="E345" s="32" t="s">
-        <v>767</v>
       </c>
       <c r="F345" s="33"/>
       <c r="G345" s="34"/>
@@ -19477,10 +19481,10 @@
         <v>81</v>
       </c>
       <c r="D346" s="31" t="s">
+        <v>767</v>
+      </c>
+      <c r="E346" s="32" t="s">
         <v>768</v>
-      </c>
-      <c r="E346" s="32" t="s">
-        <v>769</v>
       </c>
       <c r="F346" s="33"/>
       <c r="G346" s="34"/>
@@ -19511,10 +19515,10 @@
         <v>81</v>
       </c>
       <c r="D347" s="31" t="s">
+        <v>769</v>
+      </c>
+      <c r="E347" s="32" t="s">
         <v>770</v>
-      </c>
-      <c r="E347" s="32" t="s">
-        <v>771</v>
       </c>
       <c r="F347" s="33"/>
       <c r="G347" s="34"/>
@@ -19545,10 +19549,10 @@
         <v>81</v>
       </c>
       <c r="D348" s="31" t="s">
+        <v>771</v>
+      </c>
+      <c r="E348" s="32" t="s">
         <v>772</v>
-      </c>
-      <c r="E348" s="32" t="s">
-        <v>773</v>
       </c>
       <c r="F348" s="33"/>
       <c r="G348" s="34"/>
@@ -19579,10 +19583,10 @@
         <v>81</v>
       </c>
       <c r="D349" s="31" t="s">
+        <v>773</v>
+      </c>
+      <c r="E349" s="32" t="s">
         <v>774</v>
-      </c>
-      <c r="E349" s="32" t="s">
-        <v>775</v>
       </c>
       <c r="F349" s="33"/>
       <c r="G349" s="34"/>
@@ -19613,10 +19617,10 @@
         <v>81</v>
       </c>
       <c r="D350" s="31" t="s">
+        <v>775</v>
+      </c>
+      <c r="E350" s="32" t="s">
         <v>776</v>
-      </c>
-      <c r="E350" s="32" t="s">
-        <v>777</v>
       </c>
       <c r="F350" s="33"/>
       <c r="G350" s="34"/>
@@ -19647,10 +19651,10 @@
         <v>81</v>
       </c>
       <c r="D351" s="31" t="s">
+        <v>777</v>
+      </c>
+      <c r="E351" s="32" t="s">
         <v>778</v>
-      </c>
-      <c r="E351" s="32" t="s">
-        <v>779</v>
       </c>
       <c r="F351" s="33"/>
       <c r="G351" s="34"/>
@@ -19681,10 +19685,10 @@
         <v>81</v>
       </c>
       <c r="D352" s="31" t="s">
+        <v>779</v>
+      </c>
+      <c r="E352" s="32" t="s">
         <v>780</v>
-      </c>
-      <c r="E352" s="32" t="s">
-        <v>781</v>
       </c>
       <c r="F352" s="33"/>
       <c r="G352" s="34"/>
@@ -19715,10 +19719,10 @@
         <v>86</v>
       </c>
       <c r="D353" s="31" t="s">
+        <v>781</v>
+      </c>
+      <c r="E353" s="32" t="s">
         <v>782</v>
-      </c>
-      <c r="E353" s="32" t="s">
-        <v>783</v>
       </c>
       <c r="F353" s="33"/>
       <c r="G353" s="34"/>
@@ -19749,10 +19753,10 @@
         <v>86</v>
       </c>
       <c r="D354" s="31" t="s">
+        <v>783</v>
+      </c>
+      <c r="E354" s="32" t="s">
         <v>784</v>
-      </c>
-      <c r="E354" s="32" t="s">
-        <v>785</v>
       </c>
       <c r="F354" s="33"/>
       <c r="G354" s="34"/>
@@ -19783,10 +19787,10 @@
         <v>86</v>
       </c>
       <c r="D355" s="31" t="s">
+        <v>785</v>
+      </c>
+      <c r="E355" s="32" t="s">
         <v>786</v>
-      </c>
-      <c r="E355" s="32" t="s">
-        <v>787</v>
       </c>
       <c r="F355" s="33"/>
       <c r="G355" s="34"/>
@@ -19817,10 +19821,10 @@
         <v>86</v>
       </c>
       <c r="D356" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="E356" s="32" t="s">
         <v>788</v>
-      </c>
-      <c r="E356" s="32" t="s">
-        <v>789</v>
       </c>
       <c r="F356" s="33"/>
       <c r="G356" s="34"/>
@@ -19851,10 +19855,10 @@
         <v>86</v>
       </c>
       <c r="D357" s="31" t="s">
+        <v>789</v>
+      </c>
+      <c r="E357" s="32" t="s">
         <v>790</v>
-      </c>
-      <c r="E357" s="32" t="s">
-        <v>791</v>
       </c>
       <c r="F357" s="33"/>
       <c r="G357" s="34"/>
@@ -19885,10 +19889,10 @@
         <v>86</v>
       </c>
       <c r="D358" s="31" t="s">
+        <v>791</v>
+      </c>
+      <c r="E358" s="32" t="s">
         <v>792</v>
-      </c>
-      <c r="E358" s="32" t="s">
-        <v>793</v>
       </c>
       <c r="F358" s="33"/>
       <c r="G358" s="34"/>
@@ -19919,10 +19923,10 @@
         <v>86</v>
       </c>
       <c r="D359" s="31" t="s">
+        <v>793</v>
+      </c>
+      <c r="E359" s="32" t="s">
         <v>794</v>
-      </c>
-      <c r="E359" s="32" t="s">
-        <v>795</v>
       </c>
       <c r="F359" s="33"/>
       <c r="G359" s="34"/>
@@ -19953,10 +19957,10 @@
         <v>86</v>
       </c>
       <c r="D360" s="31" t="s">
+        <v>795</v>
+      </c>
+      <c r="E360" s="32" t="s">
         <v>796</v>
-      </c>
-      <c r="E360" s="32" t="s">
-        <v>797</v>
       </c>
       <c r="F360" s="33"/>
       <c r="G360" s="34"/>
@@ -19987,10 +19991,10 @@
         <v>86</v>
       </c>
       <c r="D361" s="31" t="s">
+        <v>797</v>
+      </c>
+      <c r="E361" s="32" t="s">
         <v>798</v>
-      </c>
-      <c r="E361" s="32" t="s">
-        <v>799</v>
       </c>
       <c r="F361" s="33"/>
       <c r="G361" s="34"/>
@@ -20021,10 +20025,10 @@
         <v>86</v>
       </c>
       <c r="D362" s="31" t="s">
+        <v>799</v>
+      </c>
+      <c r="E362" s="32" t="s">
         <v>800</v>
-      </c>
-      <c r="E362" s="32" t="s">
-        <v>801</v>
       </c>
       <c r="F362" s="33"/>
       <c r="G362" s="34"/>
@@ -20055,10 +20059,10 @@
         <v>86</v>
       </c>
       <c r="D363" s="31" t="s">
+        <v>801</v>
+      </c>
+      <c r="E363" s="32" t="s">
         <v>802</v>
-      </c>
-      <c r="E363" s="32" t="s">
-        <v>803</v>
       </c>
       <c r="F363" s="33"/>
       <c r="G363" s="34"/>
@@ -20089,10 +20093,10 @@
         <v>86</v>
       </c>
       <c r="D364" s="31" t="s">
+        <v>803</v>
+      </c>
+      <c r="E364" s="32" t="s">
         <v>804</v>
-      </c>
-      <c r="E364" s="32" t="s">
-        <v>805</v>
       </c>
       <c r="F364" s="33"/>
       <c r="G364" s="34"/>
@@ -20123,10 +20127,10 @@
         <v>86</v>
       </c>
       <c r="D365" s="31" t="s">
+        <v>805</v>
+      </c>
+      <c r="E365" s="32" t="s">
         <v>806</v>
-      </c>
-      <c r="E365" s="32" t="s">
-        <v>807</v>
       </c>
       <c r="F365" s="33"/>
       <c r="G365" s="34"/>
@@ -20157,10 +20161,10 @@
         <v>86</v>
       </c>
       <c r="D366" s="31" t="s">
+        <v>807</v>
+      </c>
+      <c r="E366" s="32" t="s">
         <v>808</v>
-      </c>
-      <c r="E366" s="32" t="s">
-        <v>809</v>
       </c>
       <c r="F366" s="33"/>
       <c r="G366" s="34"/>
@@ -20191,10 +20195,10 @@
         <v>86</v>
       </c>
       <c r="D367" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="E367" s="32" t="s">
         <v>810</v>
-      </c>
-      <c r="E367" s="32" t="s">
-        <v>811</v>
       </c>
       <c r="F367" s="33"/>
       <c r="G367" s="34"/>
@@ -20225,10 +20229,10 @@
         <v>86</v>
       </c>
       <c r="D368" s="31" t="s">
+        <v>811</v>
+      </c>
+      <c r="E368" s="32" t="s">
         <v>812</v>
-      </c>
-      <c r="E368" s="32" t="s">
-        <v>813</v>
       </c>
       <c r="F368" s="33"/>
       <c r="G368" s="34"/>
@@ -20259,10 +20263,10 @@
         <v>86</v>
       </c>
       <c r="D369" s="31" t="s">
+        <v>813</v>
+      </c>
+      <c r="E369" s="32" t="s">
         <v>814</v>
-      </c>
-      <c r="E369" s="32" t="s">
-        <v>815</v>
       </c>
       <c r="F369" s="33"/>
       <c r="G369" s="34"/>
@@ -20293,10 +20297,10 @@
         <v>86</v>
       </c>
       <c r="D370" s="31" t="s">
+        <v>815</v>
+      </c>
+      <c r="E370" s="32" t="s">
         <v>816</v>
-      </c>
-      <c r="E370" s="32" t="s">
-        <v>817</v>
       </c>
       <c r="F370" s="33"/>
       <c r="G370" s="34"/>
@@ -20327,10 +20331,10 @@
         <v>86</v>
       </c>
       <c r="D371" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="E371" s="32" t="s">
         <v>818</v>
-      </c>
-      <c r="E371" s="32" t="s">
-        <v>819</v>
       </c>
       <c r="F371" s="33"/>
       <c r="G371" s="34"/>
@@ -20361,10 +20365,10 @@
         <v>86</v>
       </c>
       <c r="D372" s="31" t="s">
+        <v>819</v>
+      </c>
+      <c r="E372" s="32" t="s">
         <v>820</v>
-      </c>
-      <c r="E372" s="32" t="s">
-        <v>821</v>
       </c>
       <c r="F372" s="33"/>
       <c r="G372" s="34"/>
@@ -20395,10 +20399,10 @@
         <v>86</v>
       </c>
       <c r="D373" s="31" t="s">
+        <v>821</v>
+      </c>
+      <c r="E373" s="32" t="s">
         <v>822</v>
-      </c>
-      <c r="E373" s="32" t="s">
-        <v>823</v>
       </c>
       <c r="F373" s="33"/>
       <c r="G373" s="34"/>
@@ -20429,10 +20433,10 @@
         <v>49</v>
       </c>
       <c r="D374" s="31" t="s">
+        <v>823</v>
+      </c>
+      <c r="E374" s="32" t="s">
         <v>824</v>
-      </c>
-      <c r="E374" s="32" t="s">
-        <v>825</v>
       </c>
       <c r="F374" s="33"/>
       <c r="G374" s="34"/>
@@ -30112,17 +30116,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="55" t="s">
+        <v>825</v>
+      </c>
+      <c r="D1" s="55" t="s">
         <v>826</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -30130,13 +30134,13 @@
         <v>49</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="C2" s="56" t="s">
         <v>828</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="D2" s="56" t="s">
         <v>829</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -30144,13 +30148,13 @@
         <v>56</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>828</v>
-      </c>
-      <c r="C3" s="54" t="s">
+        <v>827</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>830</v>
+      </c>
+      <c r="D3" s="56" t="s">
         <v>831</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -30158,13 +30162,13 @@
         <v>61</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>828</v>
-      </c>
-      <c r="C4" s="54" t="s">
+        <v>827</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>832</v>
+      </c>
+      <c r="D4" s="57" t="s">
         <v>833</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -30172,13 +30176,13 @@
         <v>66</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>828</v>
-      </c>
-      <c r="C5" s="54" t="s">
+        <v>827</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>834</v>
+      </c>
+      <c r="D5" s="56" t="s">
         <v>835</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -30186,13 +30190,13 @@
         <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>828</v>
-      </c>
-      <c r="C6" s="54" t="s">
+        <v>827</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>836</v>
+      </c>
+      <c r="D6" s="57" t="s">
         <v>837</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="7">
@@ -30200,13 +30204,13 @@
         <v>76</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>828</v>
-      </c>
-      <c r="C7" s="54" t="s">
+        <v>827</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>838</v>
+      </c>
+      <c r="D7" s="57" t="s">
         <v>839</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="8">
@@ -30214,13 +30218,13 @@
         <v>81</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>828</v>
-      </c>
-      <c r="C8" s="54" t="s">
+        <v>827</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>840</v>
+      </c>
+      <c r="D8" s="57" t="s">
         <v>841</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="9">
@@ -30228,27 +30232,27 @@
         <v>86</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>828</v>
-      </c>
-      <c r="C9" s="54" t="s">
+        <v>827</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>842</v>
+      </c>
+      <c r="D9" s="57" t="s">
         <v>843</v>
-      </c>
-      <c r="D9" s="55" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="11" t="s">
+        <v>844</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="C10" s="56">
+        <v>191.0</v>
+      </c>
+      <c r="D10" s="56" t="s">
         <v>845</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>828</v>
-      </c>
-      <c r="C10" s="54">
-        <v>191.0</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -30256,13 +30260,13 @@
         <v>49</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="C11" s="56">
+        <v>192.0</v>
+      </c>
+      <c r="D11" s="56" t="s">
         <v>847</v>
-      </c>
-      <c r="C11" s="54">
-        <v>192.0</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
@@ -30270,13 +30274,13 @@
         <v>56</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>847</v>
-      </c>
-      <c r="C12" s="54">
+        <v>846</v>
+      </c>
+      <c r="C12" s="56">
         <v>208.0</v>
       </c>
-      <c r="D12" s="54" t="s">
-        <v>849</v>
+      <c r="D12" s="56" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -30284,13 +30288,13 @@
         <v>61</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>847</v>
-      </c>
-      <c r="C13" s="54">
+        <v>846</v>
+      </c>
+      <c r="C13" s="56">
         <v>224.0</v>
       </c>
-      <c r="D13" s="55" t="s">
-        <v>850</v>
+      <c r="D13" s="57" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
@@ -30298,13 +30302,13 @@
         <v>66</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>847</v>
-      </c>
-      <c r="C14" s="54">
+        <v>846</v>
+      </c>
+      <c r="C14" s="56">
         <v>240.0</v>
       </c>
-      <c r="D14" s="54" t="s">
-        <v>851</v>
+      <c r="D14" s="56" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
@@ -30312,13 +30316,13 @@
         <v>71</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>847</v>
-      </c>
-      <c r="C15" s="54">
+        <v>846</v>
+      </c>
+      <c r="C15" s="56">
         <v>256.0</v>
       </c>
-      <c r="D15" s="55" t="s">
-        <v>852</v>
+      <c r="D15" s="57" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -30326,13 +30330,13 @@
         <v>76</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>847</v>
-      </c>
-      <c r="C16" s="54">
+        <v>846</v>
+      </c>
+      <c r="C16" s="56">
         <v>272.0</v>
       </c>
-      <c r="D16" s="55" t="s">
-        <v>853</v>
+      <c r="D16" s="57" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
@@ -30340,13 +30344,13 @@
         <v>81</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>847</v>
-      </c>
-      <c r="C17" s="54">
+        <v>846</v>
+      </c>
+      <c r="C17" s="56">
         <v>288.0</v>
       </c>
-      <c r="D17" s="55" t="s">
-        <v>854</v>
+      <c r="D17" s="57" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
@@ -30354,13 +30358,13 @@
         <v>86</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>847</v>
-      </c>
-      <c r="C18" s="54">
+        <v>846</v>
+      </c>
+      <c r="C18" s="56">
         <v>304.0</v>
       </c>
-      <c r="D18" s="55" t="s">
-        <v>855</v>
+      <c r="D18" s="57" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
@@ -30368,13 +30372,13 @@
         <v>49</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>855</v>
+      </c>
+      <c r="C19" s="56">
+        <v>193.0</v>
+      </c>
+      <c r="D19" s="56" t="s">
         <v>856</v>
-      </c>
-      <c r="C19" s="54">
-        <v>193.0</v>
-      </c>
-      <c r="D19" s="54" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
@@ -30382,13 +30386,13 @@
         <v>56</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>856</v>
-      </c>
-      <c r="C20" s="54">
+        <v>855</v>
+      </c>
+      <c r="C20" s="56">
         <v>209.0</v>
       </c>
-      <c r="D20" s="54" t="s">
-        <v>858</v>
+      <c r="D20" s="56" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
@@ -30396,13 +30400,13 @@
         <v>61</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>856</v>
-      </c>
-      <c r="C21" s="54">
+        <v>855</v>
+      </c>
+      <c r="C21" s="56">
         <v>225.0</v>
       </c>
-      <c r="D21" s="55" t="s">
-        <v>859</v>
+      <c r="D21" s="57" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
@@ -30410,13 +30414,13 @@
         <v>66</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>856</v>
-      </c>
-      <c r="C22" s="54">
+        <v>855</v>
+      </c>
+      <c r="C22" s="56">
         <v>241.0</v>
       </c>
-      <c r="D22" s="54" t="s">
-        <v>860</v>
+      <c r="D22" s="56" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
@@ -30424,13 +30428,13 @@
         <v>71</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>856</v>
-      </c>
-      <c r="C23" s="54">
+        <v>855</v>
+      </c>
+      <c r="C23" s="56">
         <v>257.0</v>
       </c>
-      <c r="D23" s="55" t="s">
-        <v>861</v>
+      <c r="D23" s="57" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
@@ -30438,13 +30442,13 @@
         <v>76</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>856</v>
-      </c>
-      <c r="C24" s="54">
+        <v>855</v>
+      </c>
+      <c r="C24" s="56">
         <v>273.0</v>
       </c>
-      <c r="D24" s="55" t="s">
-        <v>862</v>
+      <c r="D24" s="57" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
@@ -30452,13 +30456,13 @@
         <v>81</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>856</v>
-      </c>
-      <c r="C25" s="54">
+        <v>855</v>
+      </c>
+      <c r="C25" s="56">
         <v>289.0</v>
       </c>
-      <c r="D25" s="55" t="s">
-        <v>863</v>
+      <c r="D25" s="57" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
@@ -30466,13 +30470,13 @@
         <v>86</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>856</v>
-      </c>
-      <c r="C26" s="54">
+        <v>855</v>
+      </c>
+      <c r="C26" s="56">
         <v>305.0</v>
       </c>
-      <c r="D26" s="55" t="s">
-        <v>864</v>
+      <c r="D26" s="57" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
@@ -30480,13 +30484,13 @@
         <v>49</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>864</v>
+      </c>
+      <c r="C27" s="56">
+        <v>194.0</v>
+      </c>
+      <c r="D27" s="56" t="s">
         <v>865</v>
-      </c>
-      <c r="C27" s="54">
-        <v>194.0</v>
-      </c>
-      <c r="D27" s="54" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
@@ -30494,13 +30498,13 @@
         <v>56</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>865</v>
-      </c>
-      <c r="C28" s="54">
+        <v>864</v>
+      </c>
+      <c r="C28" s="56">
         <v>210.0</v>
       </c>
-      <c r="D28" s="54" t="s">
-        <v>867</v>
+      <c r="D28" s="56" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
@@ -30508,13 +30512,13 @@
         <v>61</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>865</v>
-      </c>
-      <c r="C29" s="54">
+        <v>864</v>
+      </c>
+      <c r="C29" s="56">
         <v>226.0</v>
       </c>
-      <c r="D29" s="56" t="s">
-        <v>868</v>
+      <c r="D29" s="58" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
@@ -30522,13 +30526,13 @@
         <v>66</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>865</v>
-      </c>
-      <c r="C30" s="54">
+        <v>864</v>
+      </c>
+      <c r="C30" s="56">
         <v>242.0</v>
       </c>
-      <c r="D30" s="54" t="s">
-        <v>869</v>
+      <c r="D30" s="56" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
@@ -30536,13 +30540,13 @@
         <v>71</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>865</v>
-      </c>
-      <c r="C31" s="54">
+        <v>864</v>
+      </c>
+      <c r="C31" s="56">
         <v>258.0</v>
       </c>
-      <c r="D31" s="55" t="s">
-        <v>870</v>
+      <c r="D31" s="57" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
@@ -30550,13 +30554,13 @@
         <v>76</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>865</v>
-      </c>
-      <c r="C32" s="54">
+        <v>864</v>
+      </c>
+      <c r="C32" s="56">
         <v>274.0</v>
       </c>
-      <c r="D32" s="55" t="s">
-        <v>871</v>
+      <c r="D32" s="57" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
@@ -30564,13 +30568,13 @@
         <v>81</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>865</v>
-      </c>
-      <c r="C33" s="54">
+        <v>864</v>
+      </c>
+      <c r="C33" s="56">
         <v>290.0</v>
       </c>
-      <c r="D33" s="55" t="s">
-        <v>872</v>
+      <c r="D33" s="57" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
@@ -30578,13 +30582,13 @@
         <v>86</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>865</v>
-      </c>
-      <c r="C34" s="54">
+        <v>864</v>
+      </c>
+      <c r="C34" s="56">
         <v>306.0</v>
       </c>
-      <c r="D34" s="55" t="s">
-        <v>873</v>
+      <c r="D34" s="57" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
@@ -30592,12 +30596,12 @@
         <v>49</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>874</v>
-      </c>
-      <c r="C35" s="54">
+        <v>873</v>
+      </c>
+      <c r="C35" s="56">
         <v>195.0</v>
       </c>
-      <c r="D35" s="54">
+      <c r="D35" s="56">
         <v>204.0</v>
       </c>
     </row>
@@ -30606,12 +30610,12 @@
         <v>56</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>874</v>
-      </c>
-      <c r="C36" s="54">
+        <v>873</v>
+      </c>
+      <c r="C36" s="56">
         <v>211.0</v>
       </c>
-      <c r="D36" s="54">
+      <c r="D36" s="56">
         <v>220.0</v>
       </c>
     </row>
@@ -30620,12 +30624,12 @@
         <v>61</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>874</v>
-      </c>
-      <c r="C37" s="54">
+        <v>873</v>
+      </c>
+      <c r="C37" s="56">
         <v>227.0</v>
       </c>
-      <c r="D37" s="55">
+      <c r="D37" s="57">
         <v>236.0</v>
       </c>
     </row>
@@ -30634,12 +30638,12 @@
         <v>66</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>874</v>
-      </c>
-      <c r="C38" s="54">
+        <v>873</v>
+      </c>
+      <c r="C38" s="56">
         <v>243.0</v>
       </c>
-      <c r="D38" s="54">
+      <c r="D38" s="56">
         <v>252.0</v>
       </c>
     </row>
@@ -30648,12 +30652,12 @@
         <v>71</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>874</v>
-      </c>
-      <c r="C39" s="54">
+        <v>873</v>
+      </c>
+      <c r="C39" s="56">
         <v>259.0</v>
       </c>
-      <c r="D39" s="55">
+      <c r="D39" s="57">
         <v>268.0</v>
       </c>
     </row>
@@ -30662,12 +30666,12 @@
         <v>76</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>874</v>
-      </c>
-      <c r="C40" s="54">
+        <v>873</v>
+      </c>
+      <c r="C40" s="56">
         <v>275.0</v>
       </c>
-      <c r="D40" s="55">
+      <c r="D40" s="57">
         <v>284.0</v>
       </c>
     </row>
@@ -30676,12 +30680,12 @@
         <v>81</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>874</v>
-      </c>
-      <c r="C41" s="54">
+        <v>873</v>
+      </c>
+      <c r="C41" s="56">
         <v>291.0</v>
       </c>
-      <c r="D41" s="55">
+      <c r="D41" s="57">
         <v>300.0</v>
       </c>
     </row>
@@ -30690,12 +30694,12 @@
         <v>86</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>874</v>
-      </c>
-      <c r="C42" s="54">
+        <v>873</v>
+      </c>
+      <c r="C42" s="56">
         <v>307.0</v>
       </c>
-      <c r="D42" s="55">
+      <c r="D42" s="57">
         <v>316.0</v>
       </c>
     </row>
@@ -30704,12 +30708,12 @@
         <v>49</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>875</v>
-      </c>
-      <c r="C43" s="54">
+        <v>874</v>
+      </c>
+      <c r="C43" s="56">
         <v>196.0</v>
       </c>
-      <c r="D43" s="54">
+      <c r="D43" s="56">
         <v>207.0</v>
       </c>
     </row>
@@ -30718,12 +30722,12 @@
         <v>56</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>875</v>
-      </c>
-      <c r="C44" s="54">
+        <v>874</v>
+      </c>
+      <c r="C44" s="56">
         <v>212.0</v>
       </c>
-      <c r="D44" s="54">
+      <c r="D44" s="56">
         <v>223.0</v>
       </c>
     </row>
@@ -30732,12 +30736,12 @@
         <v>61</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>875</v>
-      </c>
-      <c r="C45" s="54">
+        <v>874</v>
+      </c>
+      <c r="C45" s="56">
         <v>228.0</v>
       </c>
-      <c r="D45" s="55">
+      <c r="D45" s="57">
         <v>239.0</v>
       </c>
     </row>
@@ -30746,12 +30750,12 @@
         <v>66</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>875</v>
-      </c>
-      <c r="C46" s="54">
+        <v>874</v>
+      </c>
+      <c r="C46" s="56">
         <v>244.0</v>
       </c>
-      <c r="D46" s="54">
+      <c r="D46" s="56">
         <v>255.0</v>
       </c>
     </row>
@@ -30760,12 +30764,12 @@
         <v>71</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>875</v>
-      </c>
-      <c r="C47" s="54">
+        <v>874</v>
+      </c>
+      <c r="C47" s="56">
         <v>260.0</v>
       </c>
-      <c r="D47" s="55">
+      <c r="D47" s="57">
         <v>271.0</v>
       </c>
     </row>
@@ -30774,12 +30778,12 @@
         <v>76</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>875</v>
-      </c>
-      <c r="C48" s="54">
+        <v>874</v>
+      </c>
+      <c r="C48" s="56">
         <v>276.0</v>
       </c>
-      <c r="D48" s="55">
+      <c r="D48" s="57">
         <v>287.0</v>
       </c>
     </row>
@@ -30788,12 +30792,12 @@
         <v>81</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>875</v>
-      </c>
-      <c r="C49" s="54">
+        <v>874</v>
+      </c>
+      <c r="C49" s="56">
         <v>292.0</v>
       </c>
-      <c r="D49" s="55">
+      <c r="D49" s="57">
         <v>303.0</v>
       </c>
     </row>
@@ -30802,12 +30806,12 @@
         <v>86</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>875</v>
-      </c>
-      <c r="C50" s="54">
+        <v>874</v>
+      </c>
+      <c r="C50" s="56">
         <v>308.0</v>
       </c>
-      <c r="D50" s="55">
+      <c r="D50" s="57">
         <v>319.0</v>
       </c>
     </row>
@@ -31782,27 +31786,27 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="59" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="57" t="s">
-        <v>425</v>
-      </c>
-      <c r="B2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>424</v>
       </c>
+      <c r="B2" s="59" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="57" t="s">
-        <v>876</v>
-      </c>
-      <c r="B3" s="57" t="s">
-        <v>428</v>
+      <c r="A3" s="59" t="s">
+        <v>875</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
